--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-55/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-55/curvature_data.xlsx
@@ -379,156 +379,156 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>53899.331039</v>
+        <v>53748.335032</v>
       </c>
       <c r="B2">
-        <v>-2.7215971738e-05</v>
+        <v>-2.6606839197e-05</v>
       </c>
       <c r="C2">
-        <v>-2.3256394927e-05</v>
+        <v>-2.2554453831e-05</v>
       </c>
       <c r="D2">
-        <v>-1.1524276138e-05</v>
+        <v>-1.0547033795e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>53783.267034</v>
+        <v>53759.535033</v>
       </c>
       <c r="B3">
-        <v>-0.0005398722</v>
+        <v>-0.00017315402012</v>
       </c>
       <c r="C3">
-        <v>-0.0004488121</v>
+        <v>-0.00014291255666</v>
       </c>
       <c r="D3">
-        <v>-0.000155622</v>
+        <v>-5.3011293579e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>53828.467036</v>
+        <v>53770.731033</v>
       </c>
       <c r="B4">
-        <v>-0.0007037336</v>
+        <v>-0.0003598675</v>
       </c>
       <c r="C4">
-        <v>-0.0005942979</v>
+        <v>-0.0002966468</v>
       </c>
       <c r="D4">
-        <v>-0.000211813</v>
+        <v>-0.0001037019</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>53877.399038</v>
+        <v>53783.267034</v>
       </c>
       <c r="B5">
-        <v>-0.0003470053</v>
+        <v>-0.0005398722</v>
       </c>
       <c r="C5">
-        <v>-0.0002869245</v>
+        <v>-0.0004488121</v>
       </c>
       <c r="D5">
-        <v>-0.0001038159</v>
+        <v>-0.000155622</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>53770.731033</v>
+        <v>53797.399034</v>
       </c>
       <c r="B6">
-        <v>-0.0003598675</v>
+        <v>-0.0007189914</v>
       </c>
       <c r="C6">
-        <v>-0.0002966468</v>
+        <v>-0.0006050385</v>
       </c>
       <c r="D6">
-        <v>-0.0001037019</v>
+        <v>-0.0002062829</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>53797.399034</v>
+        <v>53809.067035</v>
       </c>
       <c r="B7">
-        <v>-0.0007189914</v>
+        <v>-0.0008900549</v>
       </c>
       <c r="C7">
-        <v>-0.0006050385</v>
+        <v>-0.0007621828</v>
       </c>
       <c r="D7">
-        <v>-0.0002062829</v>
+        <v>-0.0002568673</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>53748.335032</v>
+        <v>53828.467036</v>
       </c>
       <c r="B8">
-        <v>-2.6606839197e-05</v>
+        <v>-0.0007037336</v>
       </c>
       <c r="C8">
-        <v>-2.2554453831e-05</v>
+        <v>-0.0005942979</v>
       </c>
       <c r="D8">
-        <v>-1.0547033795e-05</v>
+        <v>-0.000211813</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>53759.535033</v>
+        <v>53862.467038</v>
       </c>
       <c r="B9">
-        <v>-0.00017315402012</v>
+        <v>-0.0005262601</v>
       </c>
       <c r="C9">
-        <v>-0.00014291255666</v>
+        <v>-0.0004388003</v>
       </c>
       <c r="D9">
-        <v>-5.3011293579e-05</v>
+        <v>-0.0001578908</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>53888.331039</v>
+        <v>53877.399038</v>
       </c>
       <c r="B10">
-        <v>-0.00015713230239</v>
+        <v>-0.0003470053</v>
       </c>
       <c r="C10">
-        <v>-0.00013118623841</v>
+        <v>-0.0002869245</v>
       </c>
       <c r="D10">
-        <v>-5.4090493307e-05</v>
+        <v>-0.0001038159</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>53862.467038</v>
+        <v>53888.331039</v>
       </c>
       <c r="B11">
-        <v>-0.0005262601</v>
+        <v>-0.00015713230239</v>
       </c>
       <c r="C11">
-        <v>-0.0004388003</v>
+        <v>-0.00013118623841</v>
       </c>
       <c r="D11">
-        <v>-0.0001578908</v>
+        <v>-5.4090493307e-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>53809.067035</v>
+        <v>53899.331039</v>
       </c>
       <c r="B12">
-        <v>-0.0008900549</v>
+        <v>-2.7215971738e-05</v>
       </c>
       <c r="C12">
-        <v>-0.0007621828</v>
+        <v>-2.3256394927e-05</v>
       </c>
       <c r="D12">
-        <v>-0.0002568673</v>
+        <v>-1.1524276138e-05</v>
       </c>
     </row>
   </sheetData>
